--- a/test-data/TestData.xlsx
+++ b/test-data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="7170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Password</t>
   </si>
@@ -37,12 +37,6 @@
     <t>Content</t>
   </si>
   <si>
-    <t>Appium Demo Email</t>
-  </si>
-  <si>
-    <t>This is auto email</t>
-  </si>
-  <si>
     <t>lqademomail@gmail.com</t>
   </si>
   <si>
@@ -62,6 +56,15 @@
   </si>
   <si>
     <t>sendEmailWithoutContent</t>
+  </si>
+  <si>
+    <t>Demo Email</t>
+  </si>
+  <si>
+    <t>This email is sent from Galaxy A5</t>
+  </si>
+  <si>
+    <t>Demo Email Without Content</t>
   </si>
 </sst>
 </file>
@@ -392,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,13 +410,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -427,10 +430,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -439,27 +442,27 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
